--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_29_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_29_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.53342058411925, 5.121808427866872]</t>
+          <t>[4.541815800917046, 5.113413211069076]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.21170699369854695, 0.5122931742038705]</t>
+          <t>[0.21170906826009617, 0.5122910996423213]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.507137550271764e-05</v>
+        <v>1.506803880446661e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.507137550271764e-05</v>
+        <v>1.506803880446661e-05</v>
       </c>
       <c r="W2" t="n">
         <v>2.393393393393453</v>
